--- a/example/data.xlsx
+++ b/example/data.xlsx
@@ -33,19 +33,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>价格</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>苹果</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -58,6 +46,18 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods Name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -979,24 +979,25 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1007,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1018,7 +1019,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -1026,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>5999.99</v>
@@ -1037,7 +1038,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>3.89</v>

--- a/example/data.xlsx
+++ b/example/data.xlsx
@@ -33,18 +33,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>价格</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>小米</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -57,7 +45,19 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Apple</t>
+    <t>Other Mobile Phone</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple iPhone 6s</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell Price</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -651,9 +651,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -979,7 +982,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -991,13 +994,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1008,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1019,34 +1022,34 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
         <v>5999.99</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>3.89</v>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>699.99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>